--- a/Experimental data.xlsx
+++ b/Experimental data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20202379\Documents\GitHub\Algorithms-for-Model-Checking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB85BF91-F7A0-4742-A6AD-719A408D5A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C2F726-83AB-4143-A004-7A7AD30E94CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="1" xr2:uid="{119C8ED8-2447-C247-920A-6EBC15D5BD9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{119C8ED8-2447-C247-920A-6EBC15D5BD9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -1159,7 +1159,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1207,10 +1207,10 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1309,20 +1309,56 @@
       <c r="A16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>58</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental data.xlsx
+++ b/Experimental data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Testcases"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="76">
   <si>
     <t>infinite_run_no_access</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>invariantly_inevitably_eat</t>
-  </si>
-  <si>
-    <t>TODO</t>
   </si>
   <si>
     <t>plato_infinitely_often_can_eat</t>
@@ -255,7 +252,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +270,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -330,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -344,28 +347,34 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -383,10 +392,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A28:E34" displayName="Table51016" name="Table51016" id="1" totalsRowShown="0">
-  <autoFilter ref="A28:E34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A19:E25" displayName="Table51015" name="Table51015" id="1" totalsRowShown="0">
+  <autoFilter ref="A19:E25"/>
   <tableColumns count="5">
-    <tableColumn name="invariantly_inevitably_exclusive_access" id="1"/>
+    <tableColumn name="invariantly_eventually_fair_shared_access" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -397,8 +406,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:D8" displayName="Table17" name="Table17" id="10" totalsRowShown="0">
-  <autoFilter ref="A3:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A13:D19" displayName="Table1719" name="Table1719" id="10" totalsRowShown="0">
+  <autoFilter ref="A13:D19"/>
   <tableColumns count="4">
     <tableColumn name="Formula" id="1"/>
     <tableColumn name="Nesting Depth" id="2"/>
@@ -410,8 +419,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A13:D19" displayName="Table1719" name="Table1719" id="11" totalsRowShown="0">
-  <autoFilter ref="A13:D19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:D8" displayName="Table17" name="Table17" id="11" totalsRowShown="0">
+  <autoFilter ref="A3:D8"/>
   <tableColumns count="4">
     <tableColumn name="Formula" id="1"/>
     <tableColumn name="Nesting Depth" id="2"/>
@@ -435,10 +444,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A37:E43" displayName="Table51017" name="Table51017" id="2" totalsRowShown="0">
-  <autoFilter ref="A37:E43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A10:E16" displayName="Table51014" name="Table51014" id="2" totalsRowShown="0">
+  <autoFilter ref="A10:E16"/>
   <tableColumns count="5">
-    <tableColumn name="invariantly_possibly_exclusive_access" id="1"/>
+    <tableColumn name="infinitely_often_exclusive" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -463,10 +472,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A10:E16" displayName="Table51014" name="Table51014" id="4" totalsRowShown="0">
-  <autoFilter ref="A10:E16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A37:E43" displayName="Table51017" name="Table51017" id="4" totalsRowShown="0">
+  <autoFilter ref="A37:E43"/>
   <tableColumns count="5">
-    <tableColumn name="infinitely_often_exclusive" id="1"/>
+    <tableColumn name="invariantly_possibly_exclusive_access" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -477,10 +486,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A19:E25" displayName="Table51015" name="Table51015" id="5" totalsRowShown="0">
-  <autoFilter ref="A19:E25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A28:E34" displayName="Table51016" name="Table51016" id="5" totalsRowShown="0">
+  <autoFilter ref="A28:E34"/>
   <tableColumns count="5">
-    <tableColumn name="invariantly_eventually_fair_shared_access" id="1"/>
+    <tableColumn name="invariantly_inevitably_exclusive_access" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -491,10 +500,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A52:E66" displayName="Table59" name="Table59" id="6" totalsRowShown="0">
-  <autoFilter ref="A52:E66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A35:E49" displayName="Table58" name="Table58" id="6" totalsRowShown="0">
+  <autoFilter ref="A35:E49"/>
   <tableColumns count="5">
-    <tableColumn name="plato_infinitely_often_can_eat" id="1"/>
+    <tableColumn name="invariantly_inevitably_eat" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -505,7 +514,21 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E15" displayName="Table5" name="Table5" id="7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A18:E32" displayName="Table57" name="Table57" id="7" totalsRowShown="0">
+  <autoFilter ref="A18:E32"/>
+  <tableColumns count="5">
+    <tableColumn name="invariantly_plato_starves" id="1"/>
+    <tableColumn name="Naïve algorithm" id="2"/>
+    <tableColumn name="EL algorithm" id="3"/>
+    <tableColumn name="Naïve algorithm2" id="4"/>
+    <tableColumn name="EL algorithm3" id="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E15" displayName="Table5" name="Table5" id="8" totalsRowShown="0">
   <autoFilter ref="A1:E15"/>
   <tableColumns count="5">
     <tableColumn name="invariantly_possibly_eat" id="1"/>
@@ -518,25 +541,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A18:E32" displayName="Table57" name="Table57" id="8" totalsRowShown="0">
-  <autoFilter ref="A18:E32"/>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A52:E66" displayName="Table59" name="Table59" id="9" totalsRowShown="0">
+  <autoFilter ref="A52:E66"/>
   <tableColumns count="5">
-    <tableColumn name="invariantly_plato_starves" id="1"/>
-    <tableColumn name="Naïve algorithm" id="2"/>
-    <tableColumn name="EL algorithm" id="3"/>
-    <tableColumn name="Naïve algorithm2" id="4"/>
-    <tableColumn name="EL algorithm3" id="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A35:E49" displayName="Table58" name="Table58" id="9" totalsRowShown="0">
-  <autoFilter ref="A35:E49"/>
-  <tableColumns count="5">
-    <tableColumn name="invariantly_inevitably_eat" id="1"/>
+    <tableColumn name="plato_infinitely_often_can_eat" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -836,18 +845,18 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="36.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="36.29071428571429" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="36.71928571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="36.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -857,291 +866,291 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="12" t="s">
+      <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="12" t="s">
+      <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="12" t="s">
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="12" t="s">
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="12" t="s">
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="12" t="s">
+      <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="12" t="s">
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="12" t="s">
+      <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="2"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="12" t="s">
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="12" t="s">
+      <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="12" t="s">
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="2"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="12" t="s">
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="12" t="s">
+      <c r="B27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="12" t="s">
+      <c r="B28" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="12" t="s">
-        <v>76</v>
-      </c>
       <c r="B29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1170,43 +1179,43 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -1253,7 +1262,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="10">
         <v>2</v>
@@ -1267,54 +1276,54 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="A11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="2"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -1403,13 +1412,13 @@
   </sheetPr>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="36.71928571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="36.71928571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="3" width="36.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
@@ -1450,8 +1459,8 @@
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
@@ -1459,10 +1468,10 @@
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1476,10 +1485,10 @@
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>15</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1493,10 +1502,10 @@
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>28</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1510,10 +1519,10 @@
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>36</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1527,10 +1536,10 @@
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>55</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1544,10 +1553,10 @@
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>65</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1561,10 +1570,10 @@
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>90</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1578,10 +1587,10 @@
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>102</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1595,10 +1604,10 @@
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>133</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1612,10 +1621,10 @@
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>147</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1629,8 +1638,8 @@
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
@@ -1638,22 +1647,22 @@
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="2"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="2"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
@@ -1693,8 +1702,8 @@
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
@@ -1702,10 +1711,10 @@
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <v>24</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="6">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1719,10 +1728,10 @@
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>40</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="6">
         <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1736,10 +1745,10 @@
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>50</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1753,10 +1762,10 @@
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <v>65</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="6">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1770,10 +1779,10 @@
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="6">
         <v>75</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="6">
         <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1787,10 +1796,10 @@
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <v>90</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="6">
         <v>39</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1804,10 +1813,10 @@
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="6">
         <v>100</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="6">
         <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1821,10 +1830,10 @@
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="6">
         <v>115</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="6">
         <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1838,10 +1847,10 @@
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="6">
         <v>125</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="6">
         <v>53</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1855,10 +1864,10 @@
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="6">
         <v>140</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="6">
         <v>59</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1872,8 +1881,8 @@
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
@@ -1881,22 +1890,22 @@
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="2"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="2"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
@@ -1936,8 +1945,8 @@
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
@@ -1945,10 +1954,10 @@
       <c r="A38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="6">
         <v>63</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="6">
         <v>21</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -1962,10 +1971,10 @@
       <c r="A39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="6">
         <v>108</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="6">
         <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1979,10 +1988,10 @@
       <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="6">
         <v>180</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="6">
         <v>37</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1996,10 +2005,10 @@
       <c r="A41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="6">
         <v>252</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="6">
         <v>44</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -2013,10 +2022,10 @@
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="6">
         <v>357</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="6">
         <v>53</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2030,10 +2039,10 @@
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="6">
         <v>456</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="6">
         <v>60</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2047,10 +2056,10 @@
       <c r="A44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="6">
         <v>594</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="6">
         <v>69</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -2064,10 +2073,10 @@
       <c r="A45" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="6">
         <v>720</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="6">
         <v>76</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -2081,10 +2090,10 @@
       <c r="A46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="6">
         <v>891</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="6">
         <v>85</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -2098,10 +2107,10 @@
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="5">
+      <c r="B47" s="6">
+        <v>1044</v>
+      </c>
+      <c r="C47" s="6">
         <v>92</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -2115,8 +2124,8 @@
       <c r="A48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
@@ -2124,28 +2133,28 @@
       <c r="A49" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="2"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="2"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>1</v>
@@ -2179,8 +2188,8 @@
       <c r="A54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
@@ -2188,178 +2197,178 @@
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="6">
         <v>18</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="6">
         <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="6">
         <v>24</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="6">
         <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="6">
         <v>30</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="6">
         <v>30</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="6">
         <v>36</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="6">
         <v>36</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="6">
         <v>42</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="6">
         <v>42</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="6">
         <v>48</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="6">
         <v>48</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="6">
         <v>54</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="6">
         <v>54</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="6">
         <v>60</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="6">
         <v>60</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="6">
         <v>66</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="6">
         <v>66</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="6">
         <v>72</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="6">
         <v>72</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
@@ -2367,8 +2376,8 @@
       <c r="A66" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>

--- a/Experimental data.xlsx
+++ b/Experimental data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Testcases"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="76">
   <si>
     <t>infinite_run_no_access</t>
   </si>
@@ -46,6 +46,9 @@
     <t>german_linear_2</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>german_linear_3</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>invariantly_inevitably_exclusive_access</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>invariantly_possibly_exclusive_access</t>
   </si>
   <si>
@@ -76,9 +82,6 @@
     <t>dining_2</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>dining_3</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
   </si>
   <si>
     <t>plato_infinitely_often_can_eat</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Dining Philosophers</t>
@@ -269,13 +269,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -333,12 +333,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -354,21 +357,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
@@ -392,10 +389,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A19:E25" displayName="Table51015" name="Table51015" id="1" totalsRowShown="0">
-  <autoFilter ref="A19:E25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A28:E34" displayName="Table51016" name="Table51016" id="1" totalsRowShown="0">
+  <autoFilter ref="A28:E34"/>
   <tableColumns count="5">
-    <tableColumn name="invariantly_eventually_fair_shared_access" id="1"/>
+    <tableColumn name="invariantly_inevitably_exclusive_access" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -406,8 +403,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A13:D19" displayName="Table1719" name="Table1719" id="10" totalsRowShown="0">
-  <autoFilter ref="A13:D19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:D8" displayName="Table17" name="Table17" id="10" totalsRowShown="0">
+  <autoFilter ref="A3:D8"/>
   <tableColumns count="4">
     <tableColumn name="Formula" id="1"/>
     <tableColumn name="Nesting Depth" id="2"/>
@@ -419,8 +416,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:D8" displayName="Table17" name="Table17" id="11" totalsRowShown="0">
-  <autoFilter ref="A3:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A13:D19" displayName="Table1719" name="Table1719" id="11" totalsRowShown="0">
+  <autoFilter ref="A13:D19"/>
   <tableColumns count="4">
     <tableColumn name="Formula" id="1"/>
     <tableColumn name="Nesting Depth" id="2"/>
@@ -444,10 +441,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A10:E16" displayName="Table51014" name="Table51014" id="2" totalsRowShown="0">
-  <autoFilter ref="A10:E16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A37:E43" displayName="Table51017" name="Table51017" id="2" totalsRowShown="0">
+  <autoFilter ref="A37:E43"/>
   <tableColumns count="5">
-    <tableColumn name="infinitely_often_exclusive" id="1"/>
+    <tableColumn name="invariantly_possibly_exclusive_access" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -472,10 +469,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A37:E43" displayName="Table51017" name="Table51017" id="4" totalsRowShown="0">
-  <autoFilter ref="A37:E43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A10:E16" displayName="Table51014" name="Table51014" id="4" totalsRowShown="0">
+  <autoFilter ref="A10:E16"/>
   <tableColumns count="5">
-    <tableColumn name="invariantly_possibly_exclusive_access" id="1"/>
+    <tableColumn name="infinitely_often_exclusive" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -486,10 +483,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A28:E34" displayName="Table51016" name="Table51016" id="5" totalsRowShown="0">
-  <autoFilter ref="A28:E34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A19:E25" displayName="Table51015" name="Table51015" id="5" totalsRowShown="0">
+  <autoFilter ref="A19:E25"/>
   <tableColumns count="5">
-    <tableColumn name="invariantly_inevitably_exclusive_access" id="1"/>
+    <tableColumn name="invariantly_eventually_fair_shared_access" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -500,10 +497,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A35:E49" displayName="Table58" name="Table58" id="6" totalsRowShown="0">
-  <autoFilter ref="A35:E49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A52:E66" displayName="Table59" name="Table59" id="6" totalsRowShown="0">
+  <autoFilter ref="A52:E66"/>
   <tableColumns count="5">
-    <tableColumn name="invariantly_inevitably_eat" id="1"/>
+    <tableColumn name="plato_infinitely_often_can_eat" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -514,7 +511,21 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A18:E32" displayName="Table57" name="Table57" id="7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E15" displayName="Table5" name="Table5" id="7" totalsRowShown="0">
+  <autoFilter ref="A1:E15"/>
+  <tableColumns count="5">
+    <tableColumn name="invariantly_possibly_eat" id="1"/>
+    <tableColumn name="Naïve algorithm" id="2"/>
+    <tableColumn name="EL algorithm" id="3"/>
+    <tableColumn name="Naïve algorithm2" id="4"/>
+    <tableColumn name="EL algorithm3" id="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A18:E32" displayName="Table57" name="Table57" id="8" totalsRowShown="0">
   <autoFilter ref="A18:E32"/>
   <tableColumns count="5">
     <tableColumn name="invariantly_plato_starves" id="1"/>
@@ -527,25 +538,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E15" displayName="Table5" name="Table5" id="8" totalsRowShown="0">
-  <autoFilter ref="A1:E15"/>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A35:E49" displayName="Table58" name="Table58" id="9" totalsRowShown="0">
+  <autoFilter ref="A35:E49"/>
   <tableColumns count="5">
-    <tableColumn name="invariantly_possibly_eat" id="1"/>
-    <tableColumn name="Naïve algorithm" id="2"/>
-    <tableColumn name="EL algorithm" id="3"/>
-    <tableColumn name="Naïve algorithm2" id="4"/>
-    <tableColumn name="EL algorithm3" id="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A52:E66" displayName="Table59" name="Table59" id="9" totalsRowShown="0">
-  <autoFilter ref="A52:E66"/>
-  <tableColumns count="5">
-    <tableColumn name="plato_infinitely_often_can_eat" id="1"/>
+    <tableColumn name="invariantly_inevitably_eat" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -849,9 +846,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="36.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="36.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -866,7 +863,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="12"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
@@ -875,7 +872,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -886,7 +883,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -897,7 +894,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -908,7 +905,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -919,7 +916,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -930,7 +927,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -941,7 +938,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -952,7 +949,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -963,7 +960,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -974,12 +971,12 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="12"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -990,7 +987,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1001,7 +998,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1012,7 +1009,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1023,7 +1020,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1034,12 +1031,12 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="12"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1050,7 +1047,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1061,7 +1058,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1072,7 +1069,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1083,7 +1080,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1094,12 +1091,12 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="12"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1110,7 +1107,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1121,7 +1118,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1132,7 +1129,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1143,7 +1140,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1172,157 +1169,157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="27.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="10">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="10">
+        <v>32</v>
+      </c>
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="10">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="10">
+        <v>34</v>
+      </c>
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="2"/>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1330,69 +1327,69 @@
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="10">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
         <v>2</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="7">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="10">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7">
         <v>3</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="10">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7">
         <v>2</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="7">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
         <v>2</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1412,25 +1409,25 @@
   </sheetPr>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1440,12 +1437,12 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1455,225 +1452,225 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7">
+        <v>55</v>
+      </c>
+      <c r="C8" s="7">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7">
+        <v>65</v>
+      </c>
+      <c r="C9" s="7">
         <v>21</v>
       </c>
-      <c r="B6" s="6">
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7">
+        <v>90</v>
+      </c>
+      <c r="C10" s="7">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7">
+        <v>102</v>
+      </c>
+      <c r="C11" s="7">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="6">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6">
-        <v>36</v>
-      </c>
-      <c r="C7" s="6">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6">
-        <v>55</v>
-      </c>
-      <c r="C8" s="6">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6">
-        <v>65</v>
-      </c>
-      <c r="C9" s="6">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6">
-        <v>90</v>
-      </c>
-      <c r="C10" s="6">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6">
-        <v>102</v>
-      </c>
-      <c r="C11" s="6">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>133</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="6">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7">
         <v>147</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1683,12 +1680,12 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1698,225 +1695,225 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
         <v>24</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7">
         <v>19</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6">
-        <v>40</v>
-      </c>
-      <c r="C22" s="6">
-        <v>19</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7">
         <v>50</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7">
         <v>65</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7">
         <v>75</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="7">
         <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7">
         <v>90</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="7">
         <v>39</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7">
         <v>100</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7">
         <v>115</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="7">
         <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7">
         <v>125</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="7">
         <v>53</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7">
         <v>140</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="7">
         <v>59</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="2"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="2"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1928,10 +1925,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="2"/>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1943,223 +1940,223 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="6">
+        <v>20</v>
+      </c>
+      <c r="B38" s="7">
         <v>63</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="7">
         <v>21</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="6">
+        <v>21</v>
+      </c>
+      <c r="B39" s="7">
         <v>108</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="7">
         <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="6">
+        <v>22</v>
+      </c>
+      <c r="B40" s="7">
         <v>180</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="7">
         <v>37</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="6">
+        <v>23</v>
+      </c>
+      <c r="B41" s="7">
         <v>252</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="7">
         <v>44</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="6">
+        <v>24</v>
+      </c>
+      <c r="B42" s="7">
         <v>357</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="7">
         <v>53</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="6">
+        <v>25</v>
+      </c>
+      <c r="B43" s="7">
         <v>456</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="7">
         <v>60</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="6">
+        <v>26</v>
+      </c>
+      <c r="B44" s="7">
         <v>594</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="7">
         <v>69</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="6">
+        <v>27</v>
+      </c>
+      <c r="B45" s="7">
         <v>720</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="7">
         <v>76</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="6">
+        <v>28</v>
+      </c>
+      <c r="B46" s="7">
         <v>891</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="7">
         <v>85</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="6">
+        <v>29</v>
+      </c>
+      <c r="B47" s="7">
         <v>1044</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="7">
         <v>92</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="2"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="2"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -2171,10 +2168,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="2"/>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2186,198 +2183,198 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="7">
         <v>18</v>
       </c>
-      <c r="B55" s="6">
+      <c r="C55" s="7">
         <v>18</v>
       </c>
-      <c r="C55" s="6">
-        <v>18</v>
-      </c>
       <c r="D55" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="6">
+        <v>21</v>
+      </c>
+      <c r="B56" s="7">
         <v>24</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="7">
         <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="6">
+        <v>22</v>
+      </c>
+      <c r="B57" s="7">
         <v>30</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="7">
         <v>30</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="6">
+        <v>23</v>
+      </c>
+      <c r="B58" s="7">
         <v>36</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="7">
         <v>36</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="6">
+        <v>24</v>
+      </c>
+      <c r="B59" s="7">
         <v>42</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="7">
         <v>42</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="6">
+        <v>25</v>
+      </c>
+      <c r="B60" s="7">
         <v>48</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="7">
         <v>48</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="6">
+        <v>26</v>
+      </c>
+      <c r="B61" s="7">
         <v>54</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="7">
         <v>54</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="6">
+        <v>27</v>
+      </c>
+      <c r="B62" s="7">
         <v>60</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="7">
         <v>60</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="6">
+        <v>28</v>
+      </c>
+      <c r="B63" s="7">
         <v>66</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="7">
         <v>66</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="6">
+        <v>29</v>
+      </c>
+      <c r="B64" s="7">
         <v>72</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="7">
         <v>72</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
@@ -2399,15 +2396,15 @@
   </sheetPr>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2455,37 +2452,69 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="3">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>74</v>
+      </c>
+      <c r="C7" s="3">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2"/>
@@ -2503,7 +2532,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -2546,37 +2575,69 @@
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="3">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="2"/>
@@ -2594,7 +2655,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -2637,37 +2698,69 @@
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="B22" s="3">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="3">
+        <v>29</v>
+      </c>
+      <c r="C23" s="3">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="3">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="3">
+        <v>37</v>
+      </c>
+      <c r="C25" s="3">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="2"/>
@@ -2685,7 +2778,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -2728,37 +2821,69 @@
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="B31" s="3">
+        <v>352</v>
+      </c>
+      <c r="C31" s="3">
+        <v>58</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B32" s="3">
+        <v>546</v>
+      </c>
+      <c r="C32" s="3">
+        <v>71</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B33" s="3">
+        <v>780</v>
+      </c>
+      <c r="C33" s="3">
+        <v>84</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1054</v>
+      </c>
+      <c r="C34" s="3">
+        <v>97</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="2"/>
@@ -2776,7 +2901,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1</v>
@@ -2819,37 +2944,69 @@
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="B40" s="3">
+        <v>25</v>
+      </c>
+      <c r="C40" s="3">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B41" s="3">
+        <v>29</v>
+      </c>
+      <c r="C41" s="3">
+        <v>29</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B42" s="3">
+        <v>33</v>
+      </c>
+      <c r="C42" s="3">
+        <v>33</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B43" s="3">
+        <v>37</v>
+      </c>
+      <c r="C43" s="3">
+        <v>37</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experimental data.xlsx
+++ b/Experimental data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Testcases"/>
@@ -269,13 +269,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -333,36 +333,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -389,10 +392,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A28:E34" displayName="Table51016" name="Table51016" id="1" totalsRowShown="0">
-  <autoFilter ref="A28:E34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A19:E25" displayName="Table51015" name="Table51015" id="1" totalsRowShown="0">
+  <autoFilter ref="A19:E25"/>
   <tableColumns count="5">
-    <tableColumn name="invariantly_inevitably_exclusive_access" id="1"/>
+    <tableColumn name="invariantly_eventually_fair_shared_access" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -403,8 +406,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:D8" displayName="Table17" name="Table17" id="10" totalsRowShown="0">
-  <autoFilter ref="A3:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A13:D19" displayName="Table1719" name="Table1719" id="10" totalsRowShown="0">
+  <autoFilter ref="A13:D19"/>
   <tableColumns count="4">
     <tableColumn name="Formula" id="1"/>
     <tableColumn name="Nesting Depth" id="2"/>
@@ -416,8 +419,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A13:D19" displayName="Table1719" name="Table1719" id="11" totalsRowShown="0">
-  <autoFilter ref="A13:D19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A3:D8" displayName="Table17" name="Table17" id="11" totalsRowShown="0">
+  <autoFilter ref="A3:D8"/>
   <tableColumns count="4">
     <tableColumn name="Formula" id="1"/>
     <tableColumn name="Nesting Depth" id="2"/>
@@ -441,10 +444,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A37:E43" displayName="Table51017" name="Table51017" id="2" totalsRowShown="0">
-  <autoFilter ref="A37:E43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A10:E16" displayName="Table51014" name="Table51014" id="2" totalsRowShown="0">
+  <autoFilter ref="A10:E16"/>
   <tableColumns count="5">
-    <tableColumn name="invariantly_possibly_exclusive_access" id="1"/>
+    <tableColumn name="infinitely_often_exclusive" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -469,10 +472,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A10:E16" displayName="Table51014" name="Table51014" id="4" totalsRowShown="0">
-  <autoFilter ref="A10:E16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A37:E43" displayName="Table51017" name="Table51017" id="4" totalsRowShown="0">
+  <autoFilter ref="A37:E43"/>
   <tableColumns count="5">
-    <tableColumn name="infinitely_often_exclusive" id="1"/>
+    <tableColumn name="invariantly_possibly_exclusive_access" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -483,10 +486,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A19:E25" displayName="Table51015" name="Table51015" id="5" totalsRowShown="0">
-  <autoFilter ref="A19:E25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A28:E34" displayName="Table51016" name="Table51016" id="5" totalsRowShown="0">
+  <autoFilter ref="A28:E34"/>
   <tableColumns count="5">
-    <tableColumn name="invariantly_eventually_fair_shared_access" id="1"/>
+    <tableColumn name="invariantly_inevitably_exclusive_access" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -497,10 +500,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A52:E66" displayName="Table59" name="Table59" id="6" totalsRowShown="0">
-  <autoFilter ref="A52:E66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A35:E49" displayName="Table58" name="Table58" id="6" totalsRowShown="0">
+  <autoFilter ref="A35:E49"/>
   <tableColumns count="5">
-    <tableColumn name="plato_infinitely_often_can_eat" id="1"/>
+    <tableColumn name="invariantly_inevitably_eat" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -511,7 +514,21 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E15" displayName="Table5" name="Table5" id="7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A18:E32" displayName="Table57" name="Table57" id="7" totalsRowShown="0">
+  <autoFilter ref="A18:E32"/>
+  <tableColumns count="5">
+    <tableColumn name="invariantly_plato_starves" id="1"/>
+    <tableColumn name="Naïve algorithm" id="2"/>
+    <tableColumn name="EL algorithm" id="3"/>
+    <tableColumn name="Naïve algorithm2" id="4"/>
+    <tableColumn name="EL algorithm3" id="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E15" displayName="Table5" name="Table5" id="8" totalsRowShown="0">
   <autoFilter ref="A1:E15"/>
   <tableColumns count="5">
     <tableColumn name="invariantly_possibly_eat" id="1"/>
@@ -524,25 +541,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A18:E32" displayName="Table57" name="Table57" id="8" totalsRowShown="0">
-  <autoFilter ref="A18:E32"/>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A52:E66" displayName="Table59" name="Table59" id="9" totalsRowShown="0">
+  <autoFilter ref="A52:E66"/>
   <tableColumns count="5">
-    <tableColumn name="invariantly_plato_starves" id="1"/>
-    <tableColumn name="Naïve algorithm" id="2"/>
-    <tableColumn name="EL algorithm" id="3"/>
-    <tableColumn name="Naïve algorithm2" id="4"/>
-    <tableColumn name="EL algorithm3" id="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A35:E49" displayName="Table58" name="Table58" id="9" totalsRowShown="0">
-  <autoFilter ref="A35:E49"/>
-  <tableColumns count="5">
-    <tableColumn name="invariantly_inevitably_eat" id="1"/>
+    <tableColumn name="plato_infinitely_often_can_eat" id="1"/>
     <tableColumn name="Naïve algorithm" id="2"/>
     <tableColumn name="EL algorithm" id="3"/>
     <tableColumn name="Naïve algorithm2" id="4"/>
@@ -846,9 +849,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="36.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="36.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="36.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -863,290 +866,290 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="11"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="11"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="11"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="11"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1169,227 +1172,227 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="9">
         <v>1</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9">
         <v>1</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>2</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>3</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="9">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="9">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9">
         <v>2</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="9">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="9">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="9">
         <v>2</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="9">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1409,25 +1412,25 @@
   </sheetPr>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="36.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1438,239 +1441,239 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="9">
+        <v>63</v>
+      </c>
+      <c r="C4" s="9">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="B5" s="9">
+        <v>108</v>
+      </c>
+      <c r="C5" s="9">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
+        <v>180</v>
+      </c>
+      <c r="C6" s="9">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9">
+        <v>252</v>
+      </c>
+      <c r="C7" s="9">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9">
+        <v>357</v>
+      </c>
+      <c r="C8" s="9">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9">
+        <v>456</v>
+      </c>
+      <c r="C9" s="9">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="9">
+        <v>594</v>
+      </c>
+      <c r="C10" s="9">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="9">
+        <v>720</v>
+      </c>
+      <c r="C11" s="9">
+        <v>76</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="7">
-        <v>36</v>
-      </c>
-      <c r="C7" s="7">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="7">
-        <v>55</v>
-      </c>
-      <c r="C8" s="7">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="7">
-        <v>65</v>
-      </c>
-      <c r="C9" s="7">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="7">
-        <v>90</v>
-      </c>
-      <c r="C10" s="7">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7">
-        <v>102</v>
-      </c>
-      <c r="C11" s="7">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="7">
-        <v>133</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12" s="9">
+        <v>891</v>
+      </c>
+      <c r="C12" s="9">
+        <v>85</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1044</v>
+      </c>
+      <c r="C13" s="9">
+        <v>92</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="7">
-        <v>147</v>
-      </c>
-      <c r="C13" s="7">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1681,239 +1684,239 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="9">
         <v>24</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9">
         <v>14</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="9">
         <v>40</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="9">
         <v>19</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>50</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="9">
         <v>23</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="9">
         <v>65</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="9">
         <v>29</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="9">
         <v>75</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="9">
         <v>33</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="9">
         <v>90</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="9">
         <v>39</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="9">
         <v>100</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="9">
         <v>43</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="9">
         <v>115</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="9">
         <v>49</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="9">
         <v>125</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="9">
         <v>53</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="9">
         <v>140</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="9">
         <v>59</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="2"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="2"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1924,239 +1927,239 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="2"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="7">
-        <v>63</v>
-      </c>
-      <c r="C38" s="7">
+      <c r="B38" s="9">
+        <v>9</v>
+      </c>
+      <c r="C38" s="9">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="9">
+        <v>15</v>
+      </c>
+      <c r="C39" s="9">
+        <v>9</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="9">
+        <v>28</v>
+      </c>
+      <c r="C40" s="9">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="9">
+        <v>36</v>
+      </c>
+      <c r="C41" s="9">
+        <v>15</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="9">
+        <v>55</v>
+      </c>
+      <c r="C42" s="9">
+        <v>19</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="9">
+        <v>65</v>
+      </c>
+      <c r="C43" s="9">
         <v>21</v>
       </c>
-      <c r="B39" s="7">
-        <v>108</v>
-      </c>
-      <c r="C39" s="7">
+      <c r="D43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="9">
+        <v>90</v>
+      </c>
+      <c r="C44" s="9">
+        <v>25</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="9">
+        <v>102</v>
+      </c>
+      <c r="C45" s="9">
+        <v>27</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="7">
-        <v>180</v>
-      </c>
-      <c r="C40" s="7">
-        <v>37</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="7">
-        <v>252</v>
-      </c>
-      <c r="C41" s="7">
-        <v>44</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="7">
-        <v>357</v>
-      </c>
-      <c r="C42" s="7">
-        <v>53</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="7">
-        <v>456</v>
-      </c>
-      <c r="C43" s="7">
-        <v>60</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="7">
-        <v>594</v>
-      </c>
-      <c r="C44" s="7">
-        <v>69</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="7">
-        <v>720</v>
-      </c>
-      <c r="C45" s="7">
-        <v>76</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="7">
-        <v>891</v>
-      </c>
-      <c r="C46" s="7">
-        <v>85</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="B46" s="9">
+        <v>133</v>
+      </c>
+      <c r="C46" s="9">
+        <v>31</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="7">
-        <v>1044</v>
-      </c>
-      <c r="C47" s="7">
-        <v>92</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="B47" s="9">
+        <v>147</v>
+      </c>
+      <c r="C47" s="9">
+        <v>33</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="2"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="2"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -2167,216 +2170,216 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="2"/>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="3"/>
+      <c r="B53" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="9">
         <v>18</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="9">
         <v>18</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="D55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="9">
         <v>24</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="9">
         <v>24</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="D56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="9">
         <v>30</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="9">
         <v>30</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="D57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="9">
         <v>36</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="9">
         <v>36</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="D58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="9">
         <v>42</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="9">
         <v>42</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="D59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="9">
         <v>48</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="9">
         <v>48</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="D60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="9">
         <v>54</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="9">
         <v>54</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="D61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="9">
         <v>60</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="9">
         <v>60</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="D62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="9">
         <v>66</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="9">
         <v>66</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="D63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="9">
         <v>72</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="9">
         <v>72</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="D64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2396,25 +2399,25 @@
   </sheetPr>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="36.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2425,119 +2428,119 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>27</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>42</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>42</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>58</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>58</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>74</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>74</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2548,119 +2551,119 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>25</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>29</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>29</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>33</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>33</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="5">
         <v>37</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>37</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2671,119 +2674,119 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="5">
         <v>25</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <v>25</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="5">
         <v>29</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <v>29</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="5">
         <v>33</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <v>33</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="5">
         <v>37</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
         <v>37</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2794,119 +2797,119 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="5">
         <v>352</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="5">
         <v>58</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="5">
         <v>546</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="5">
         <v>71</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="5">
         <v>780</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="5">
         <v>84</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="5">
         <v>1054</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="5">
         <v>97</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2917,94 +2920,94 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="5">
         <v>25</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="5">
         <v>25</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="5">
         <v>29</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="5">
         <v>29</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="D41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="5">
         <v>33</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="5">
         <v>33</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="D42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="5">
         <v>37</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="5">
         <v>37</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="D43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>9</v>
       </c>
     </row>
